--- a/Result/19-10-24/HKEXstock_19-10-24period60RS90.xlsx
+++ b/Result/19-10-24/HKEXstock_19-10-24period60RS90.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/19-10-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A8BD9E-A44D-EE4F-B516-E8B67D19F5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63C7B81-B13A-8944-91FF-F4F8D6F73D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
   <si>
     <t>Stock</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Close</t>
   </si>
   <si>
+    <t>SMA 5 Slope</t>
+  </si>
+  <si>
     <t>Retracement (%)</t>
   </si>
   <si>
@@ -163,6 +166,18 @@
     <t>Internet Retail</t>
   </si>
   <si>
+    <t>2628.HK</t>
+  </si>
+  <si>
+    <t>2024-10-31 18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
     <t>2618.HK</t>
   </si>
   <si>
@@ -175,18 +190,6 @@
     <t>Integrated Freight &amp; Logistics</t>
   </si>
   <si>
-    <t>2628.HK</t>
-  </si>
-  <si>
-    <t>2024-10-31 18:00:00+08:00</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Insurance - Life</t>
-  </si>
-  <si>
     <t>9618.HK</t>
   </si>
   <si>
@@ -208,6 +211,15 @@
     <t>Insurance - Property &amp; Casualty</t>
   </si>
   <si>
+    <t>1788.HK</t>
+  </si>
+  <si>
+    <t>2025-03-24 18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
     <t>2380.HK</t>
   </si>
   <si>
@@ -232,15 +244,6 @@
     <t>Internet Content &amp; Information</t>
   </si>
   <si>
-    <t>1788.HK</t>
-  </si>
-  <si>
-    <t>2025-03-24 18:00:00+08:00</t>
-  </si>
-  <si>
-    <t>Capital Markets</t>
-  </si>
-  <si>
     <t>1157.HK</t>
   </si>
   <si>
@@ -373,15 +376,12 @@
     <t>Beverages - Brewers</t>
   </si>
   <si>
-    <t>0788.HK</t>
+    <t>0762.HK</t>
   </si>
   <si>
     <t>Telecom Services</t>
   </si>
   <si>
-    <t>0762.HK</t>
-  </si>
-  <si>
     <t>0525.HK</t>
   </si>
   <si>
@@ -406,28 +406,28 @@
     <t>3618.HK</t>
   </si>
   <si>
+    <t>1898.HK</t>
+  </si>
+  <si>
+    <t>2024-10-23 18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>Thermal Coal</t>
+  </si>
+  <si>
     <t>0728.HK</t>
   </si>
   <si>
     <t>2024-10-22 18:00:00+08:00</t>
   </si>
   <si>
-    <t>1898.HK</t>
-  </si>
-  <si>
-    <t>2024-10-23 18:00:00+08:00</t>
-  </si>
-  <si>
-    <t>Thermal Coal</t>
+    <t>3328.HK</t>
   </si>
   <si>
     <t>0267.HK</t>
   </si>
   <si>
     <t>Conglomerates</t>
-  </si>
-  <si>
-    <t>3328.HK</t>
   </si>
   <si>
     <t>6099.HK</t>
@@ -462,24 +462,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -509,13 +497,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -818,15 +804,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AR39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,13 +942,16 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
+    <row r="2" spans="1:44">
+      <c r="A2" t="s">
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>93.335843373493972</v>
+        <v>93.343362166227905</v>
       </c>
       <c r="C2">
         <v>67</v>
@@ -971,79 +960,79 @@
         <v>185.4</v>
       </c>
       <c r="E2">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="F2">
         <v>23</v>
       </c>
-      <c r="F2">
-        <v>9.5343814391807294E-2</v>
-      </c>
       <c r="G2">
+        <v>7.06143995626278E-2</v>
+      </c>
+      <c r="H2">
         <v>6.31</v>
       </c>
-      <c r="H2">
-        <v>2.6476116948216048E-2</v>
-      </c>
       <c r="I2">
+        <v>7.2780092457348164E-3</v>
+      </c>
+      <c r="J2">
         <v>4.42</v>
       </c>
-      <c r="J2">
-        <v>0.14931035595513589</v>
-      </c>
       <c r="K2">
+        <v>0.12625614359425999</v>
+      </c>
+      <c r="L2">
         <v>181.3399993896484</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>170.05499954223629</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>134.90399963378911</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>106.78674997329711</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.07</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.34</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>13</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>22.777777777777779</v>
       </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2">
         <v>61.1</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>217</v>
       </c>
-      <c r="AB2">
-        <v>1101.4100000000001</v>
-      </c>
-      <c r="AF2">
+      <c r="AC2">
+        <v>1120.82</v>
+      </c>
+      <c r="AG2">
         <v>14.895001000000001</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>44</v>
       </c>
       <c r="AK2" t="s">
         <v>45</v>
@@ -1051,109 +1040,112 @@
       <c r="AL2" t="s">
         <v>46</v>
       </c>
-      <c r="AM2">
-        <v>3.81</v>
+      <c r="AM2" t="s">
+        <v>47</v>
       </c>
       <c r="AN2">
+        <v>3.8</v>
+      </c>
+      <c r="AO2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AO2">
-        <v>115.22</v>
-      </c>
       <c r="AP2">
+        <v>115.79</v>
+      </c>
+      <c r="AQ2">
         <v>142.19999999999999</v>
       </c>
-      <c r="AQ2">
-        <v>89.278353323850126</v>
+      <c r="AR2">
+        <v>89.063386111879538</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>96.121987951807228</v>
+        <v>92.064685972169997</v>
       </c>
       <c r="C3">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>14.86</v>
+        <v>16.66</v>
       </c>
       <c r="E3">
-        <v>20.64</v>
+        <v>0.18799991607665939</v>
       </c>
       <c r="F3">
-        <v>-9.4004304132755512E-2</v>
+        <v>26.21</v>
       </c>
       <c r="G3">
-        <v>5.81</v>
+        <v>0.32909495750483869</v>
       </c>
       <c r="H3">
-        <v>-8.8509246189915708E-2</v>
+        <v>6.95</v>
       </c>
       <c r="I3">
-        <v>4.7</v>
+        <v>0.15355998020132849</v>
       </c>
       <c r="J3">
-        <v>0.26519302027852532</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="K3">
-        <v>14.09599990844726</v>
+        <v>8.087775320526519E-2</v>
       </c>
       <c r="L3">
-        <v>12.882999849319461</v>
+        <v>16.139999771118159</v>
       </c>
       <c r="M3">
-        <v>10.62319993972778</v>
+        <v>15.198499917984011</v>
       </c>
       <c r="N3">
-        <v>8.8726999878883355</v>
+        <v>12.62939994812012</v>
       </c>
       <c r="O3">
-        <v>1.0900000000000001</v>
+        <v>10.78999999046326</v>
       </c>
       <c r="P3">
-        <v>1.33</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
+        <v>1.06</v>
+      </c>
+      <c r="Q3">
+        <v>1.28</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="W3" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <v>15</v>
       </c>
       <c r="X3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>6.61</v>
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>15.6</v>
+        <v>8.19</v>
       </c>
       <c r="AB3">
-        <v>98.41</v>
-      </c>
-      <c r="AF3">
-        <v>7.5729995999999993</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>48</v>
+        <v>20.6</v>
+      </c>
+      <c r="AC3">
+        <v>1116.1500000000001</v>
+      </c>
+      <c r="AG3">
+        <v>5.4690000000000003</v>
       </c>
       <c r="AK3" t="s">
         <v>49</v>
@@ -1161,88 +1153,91 @@
       <c r="AL3" t="s">
         <v>50</v>
       </c>
-      <c r="AM3">
-        <v>0.61</v>
+      <c r="AM3" t="s">
+        <v>51</v>
       </c>
       <c r="AN3">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="AO3">
-        <v>26.23</v>
+        <v>1.87</v>
       </c>
       <c r="AP3">
-        <v>476</v>
+        <v>94.79</v>
       </c>
       <c r="AQ3">
-        <v>71.158622172727817</v>
+        <v>48.9</v>
+      </c>
+      <c r="AR3">
+        <v>70.312822590243954</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>92.055722891566262</v>
+        <v>96.126363294471602</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="D4">
-        <v>16.66</v>
+        <v>14.86</v>
       </c>
       <c r="E4">
-        <v>26.21</v>
+        <v>0.37600002288818318</v>
       </c>
       <c r="F4">
-        <v>0.35416602190564439</v>
+        <v>20.64</v>
       </c>
       <c r="G4">
-        <v>6.95</v>
+        <v>-0.11848377633064559</v>
       </c>
       <c r="H4">
-        <v>0.17365738176502479</v>
+        <v>5.81</v>
       </c>
       <c r="I4">
-        <v>4.3099999999999996</v>
+        <v>-0.1070047805633227</v>
       </c>
       <c r="J4">
-        <v>0.10378502354237561</v>
+        <v>4.7</v>
       </c>
       <c r="K4">
-        <v>16.139999771118159</v>
+        <v>0.24176477367533741</v>
       </c>
       <c r="L4">
-        <v>15.198499917984011</v>
+        <v>14.09599990844726</v>
       </c>
       <c r="M4">
-        <v>12.62939994812012</v>
+        <v>12.882999849319461</v>
       </c>
       <c r="N4">
-        <v>10.78999999046326</v>
+        <v>10.62319993972778</v>
       </c>
       <c r="O4">
-        <v>1.06</v>
+        <v>8.8726999878883355</v>
       </c>
       <c r="P4">
-        <v>1.28</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>1.33</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>15</v>
-      </c>
-      <c r="W4" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>13.33333333333333</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1250,20 +1245,20 @@
       <c r="Y4" t="b">
         <v>1</v>
       </c>
-      <c r="Z4">
-        <v>8.19</v>
+      <c r="Z4" t="b">
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>20.6</v>
+        <v>6.61</v>
       </c>
       <c r="AB4">
-        <v>1163.3399999999999</v>
-      </c>
-      <c r="AF4">
-        <v>5.4690000000000003</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>52</v>
+        <v>15.6</v>
+      </c>
+      <c r="AC4">
+        <v>98.41</v>
+      </c>
+      <c r="AG4">
+        <v>7.5729995999999993</v>
       </c>
       <c r="AK4" t="s">
         <v>53</v>
@@ -1271,28 +1266,31 @@
       <c r="AL4" t="s">
         <v>54</v>
       </c>
-      <c r="AM4">
-        <v>0.96</v>
+      <c r="AM4" t="s">
+        <v>55</v>
       </c>
       <c r="AN4">
-        <v>1.87</v>
+        <v>0.61</v>
       </c>
       <c r="AO4">
-        <v>94.79</v>
+        <v>0.77</v>
       </c>
       <c r="AP4">
-        <v>48.9</v>
+        <v>26.23</v>
       </c>
       <c r="AQ4">
-        <v>70.656456350680259</v>
+        <v>476</v>
+      </c>
+      <c r="AR4">
+        <v>70.23178944149717</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>92.846385542168676</v>
+        <v>92.854456562617528</v>
       </c>
       <c r="C5">
         <v>197</v>
@@ -1301,108 +1299,111 @@
         <v>158.80000000000001</v>
       </c>
       <c r="E5">
+        <v>-0.56000061035155113</v>
+      </c>
+      <c r="F5">
         <v>22.36</v>
       </c>
-      <c r="F5">
-        <v>4.4314959652566953E-2</v>
-      </c>
       <c r="G5">
+        <v>1.9652903751084201E-2</v>
+      </c>
+      <c r="H5">
         <v>6.37</v>
       </c>
-      <c r="H5">
-        <v>4.0274360524791983E-2</v>
-      </c>
       <c r="I5">
+        <v>2.099194402282183E-2</v>
+      </c>
+      <c r="J5">
         <v>4.38</v>
       </c>
-      <c r="J5">
-        <v>0.13275568962322309</v>
-      </c>
       <c r="K5">
+        <v>0.1097549107255346</v>
+      </c>
+      <c r="L5">
         <v>162.07999877929689</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>150.41000099182131</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>122.1800003051758</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>109.2045002746582</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.08</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.33</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>6</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>11.111111111111111</v>
       </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
       <c r="X5" t="b">
         <v>0</v>
       </c>
       <c r="Y5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5">
         <v>81.55</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>192.3</v>
       </c>
-      <c r="AB5">
-        <v>483.81</v>
-      </c>
-      <c r="AF5">
+      <c r="AC5">
+        <v>486</v>
+      </c>
+      <c r="AG5">
         <v>10.810999600000001</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>56</v>
-      </c>
       <c r="AK5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AL5" t="s">
         <v>46</v>
       </c>
-      <c r="AM5">
-        <v>10.85</v>
+      <c r="AM5" t="s">
+        <v>47</v>
       </c>
       <c r="AN5">
+        <v>10.81</v>
+      </c>
+      <c r="AO5">
         <v>16.29</v>
       </c>
-      <c r="AO5">
-        <v>50.14</v>
-      </c>
       <c r="AP5">
+        <v>50.69</v>
+      </c>
+      <c r="AQ5">
         <v>92.100000000000009</v>
       </c>
-      <c r="AQ5">
-        <v>63.673261308291671</v>
+      <c r="AR5">
+        <v>63.123983015353623</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>96.329066265060234</v>
+        <v>96.333207972922153</v>
       </c>
       <c r="C6">
         <v>93</v>
@@ -1411,44 +1412,44 @@
         <v>27.15</v>
       </c>
       <c r="E6">
+        <v>0.220000076293946</v>
+      </c>
+      <c r="F6">
         <v>32.869999999999997</v>
       </c>
-      <c r="F6">
-        <v>0.88911462330517221</v>
-      </c>
       <c r="G6">
+        <v>0.86333741795044394</v>
+      </c>
+      <c r="H6">
         <v>9.39</v>
       </c>
-      <c r="H6">
-        <v>0.73478595387910794</v>
-      </c>
       <c r="I6">
+        <v>0.71125999446952937</v>
+      </c>
+      <c r="J6">
         <v>5.74</v>
       </c>
-      <c r="J6">
-        <v>0.69561434490825702</v>
-      </c>
       <c r="K6">
+        <v>0.670796828262196</v>
+      </c>
+      <c r="L6">
         <v>26.680000305175781</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>23.794999980926509</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>18.777199954986571</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>15.90779996871948</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.42</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
         <v>0</v>
       </c>
@@ -1456,63 +1457,66 @@
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>7</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>11.66666666666667</v>
       </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
       <c r="X6" t="b">
         <v>0</v>
       </c>
       <c r="Y6" t="b">
         <v>0</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>12.46</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>35.6</v>
       </c>
-      <c r="AB6">
-        <v>144.88999999999999</v>
-      </c>
-      <c r="AF6">
+      <c r="AC6">
+        <v>140.77000000000001</v>
+      </c>
+      <c r="AG6">
         <v>9.7059999999999995</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>58</v>
-      </c>
       <c r="AK6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AL6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM6">
-        <v>3.44</v>
+        <v>50</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>51</v>
       </c>
       <c r="AN6">
+        <v>3.43</v>
+      </c>
+      <c r="AO6">
         <v>4.22</v>
       </c>
-      <c r="AO6">
-        <v>22.67</v>
-      </c>
       <c r="AP6">
+        <v>23.03</v>
+      </c>
+      <c r="AQ6">
         <v>100.6</v>
       </c>
-      <c r="AQ6">
-        <v>59.177462007031707</v>
+      <c r="AR6">
+        <v>58.306085275000072</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>93.109939759036138</v>
+        <v>93.117713426100039</v>
       </c>
       <c r="C7">
         <v>37</v>
@@ -1521,44 +1525,44 @@
         <v>4.04</v>
       </c>
       <c r="E7">
+        <v>2.9999971389770511E-2</v>
+      </c>
+      <c r="F7">
         <v>25.1</v>
       </c>
-      <c r="F7">
-        <v>0.26470354110711342</v>
-      </c>
       <c r="G7">
+        <v>0.2397505686526481</v>
+      </c>
+      <c r="H7">
         <v>5.84</v>
       </c>
-      <c r="H7">
-        <v>-8.1610124401627751E-2</v>
-      </c>
       <c r="I7">
+        <v>-0.10014781317477919</v>
+      </c>
+      <c r="J7">
         <v>3.6</v>
       </c>
-      <c r="J7">
-        <v>-0.19006030384907571</v>
-      </c>
       <c r="K7">
+        <v>-0.21201913021460919</v>
+      </c>
+      <c r="L7">
         <v>3.9460000514984128</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3.7485000491142269</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3.1802000188827519</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2.7329000043869018</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1.05</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.24</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
         <v>0</v>
       </c>
@@ -1566,111 +1570,114 @@
         <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>15</v>
       </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
       <c r="Y7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>2.2400000000000002</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>4.9400000000000004</v>
       </c>
-      <c r="AB7">
-        <v>319.47000000000003</v>
-      </c>
-      <c r="AF7">
+      <c r="AC7">
+        <v>318.76</v>
+      </c>
+      <c r="AG7">
         <v>10.210000000000001</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>60</v>
-      </c>
       <c r="AK7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AL7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM7">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN7">
         <v>0.62</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>0.7</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>12.9</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>68.2</v>
       </c>
-      <c r="AQ7">
-        <v>57.947498720114943</v>
+      <c r="AR7">
+        <v>56.708892574685542</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>42.356927710843372</v>
+        <v>97.10417450169237</v>
       </c>
       <c r="C8">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>3.66</v>
+        <v>1.2</v>
       </c>
       <c r="E8">
-        <v>10.5</v>
+        <v>-1.9999980926513668E-2</v>
       </c>
       <c r="F8">
-        <v>-0.90958999411152963</v>
+        <v>53.67</v>
       </c>
       <c r="G8">
-        <v>2.73</v>
+        <v>2.534322700573719</v>
       </c>
       <c r="H8">
-        <v>-0.79681908312080729</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="I8">
-        <v>1.95</v>
+        <v>2.452929711159566</v>
       </c>
       <c r="J8">
-        <v>-0.87294029004047691</v>
+        <v>10.08</v>
       </c>
       <c r="K8">
-        <v>3.6539999961853029</v>
+        <v>2.4611805945188938</v>
       </c>
       <c r="L8">
-        <v>3.6035000085830688</v>
+        <v>1.1400000095367431</v>
       </c>
       <c r="M8">
-        <v>3.549599986076355</v>
+        <v>1.144999992847443</v>
       </c>
       <c r="N8">
-        <v>3.4058500123023991</v>
+        <v>0.82880000114440922</v>
       </c>
       <c r="O8">
-        <v>1.01</v>
+        <v>0.63455000013113017</v>
       </c>
       <c r="P8">
-        <v>1.03</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1.38</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1679,215 +1686,221 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
       </c>
       <c r="Y8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>2.72</v>
+        <v>0</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>4.2699999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="AB8">
-        <v>45.27</v>
-      </c>
-      <c r="AF8">
-        <v>7.5259999999999998</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>63</v>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AC8">
+        <v>11.45</v>
+      </c>
+      <c r="AG8">
+        <v>1.87</v>
       </c>
       <c r="AK8" t="s">
         <v>64</v>
       </c>
       <c r="AL8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM8" t="s">
         <v>65</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
+        <v>0.03</v>
+      </c>
+      <c r="AO8">
+        <v>0.09</v>
+      </c>
+      <c r="AP8">
+        <v>200</v>
+      </c>
+      <c r="AQ8">
+        <v>63.2</v>
+      </c>
+      <c r="AR8">
+        <v>55.657415786792221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>42.384355020684467</v>
+      </c>
+      <c r="C9">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>3.66</v>
+      </c>
+      <c r="E9">
+        <v>3.8000011444092152E-2</v>
+      </c>
+      <c r="F9">
+        <v>10.5</v>
+      </c>
+      <c r="G9">
+        <v>-0.93299287978200285</v>
+      </c>
+      <c r="H9">
+        <v>2.73</v>
+      </c>
+      <c r="I9">
+        <v>-0.81098676578711693</v>
+      </c>
+      <c r="J9">
+        <v>1.95</v>
+      </c>
+      <c r="K9">
+        <v>-0.89269498604952913</v>
+      </c>
+      <c r="L9">
+        <v>3.6539999961853029</v>
+      </c>
+      <c r="M9">
+        <v>3.6035000085830688</v>
+      </c>
+      <c r="N9">
+        <v>3.549599986076355</v>
+      </c>
+      <c r="O9">
+        <v>3.4058500123023991</v>
+      </c>
+      <c r="P9">
+        <v>1.01</v>
+      </c>
+      <c r="Q9">
+        <v>1.03</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>2.72</v>
+      </c>
+      <c r="AB9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AC9">
+        <v>45.27</v>
+      </c>
+      <c r="AG9">
+        <v>7.5259999999999998</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN9">
         <v>0.32</v>
       </c>
-      <c r="AN8">
+      <c r="AO9">
         <v>0.53</v>
       </c>
-      <c r="AO8">
+      <c r="AP9">
         <v>65.62</v>
       </c>
-      <c r="AP8">
+      <c r="AQ9">
         <v>51.5</v>
       </c>
-      <c r="AQ8">
-        <v>56.011447625018953</v>
+      <c r="AR9">
+        <v>55.499437206244878</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9">
-        <v>74.868222891566262</v>
-      </c>
-      <c r="C9">
-        <v>164</v>
-      </c>
-      <c r="D9">
-        <v>430.8</v>
-      </c>
-      <c r="E9">
-        <v>14.72</v>
-      </c>
-      <c r="F9">
-        <v>-0.57035394313226184</v>
-      </c>
-      <c r="G9">
-        <v>3.21</v>
-      </c>
-      <c r="H9">
-        <v>-0.68643313450820076</v>
-      </c>
-      <c r="I9">
-        <v>2.15</v>
-      </c>
-      <c r="J9">
-        <v>-0.79016695838091322</v>
-      </c>
-      <c r="K9">
-        <v>427.67999267578119</v>
-      </c>
-      <c r="L9">
-        <v>428.41999969482418</v>
-      </c>
-      <c r="M9">
-        <v>395.04799987792973</v>
-      </c>
-      <c r="N9">
-        <v>344.37999984741208</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1.08</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>4</v>
-      </c>
-      <c r="V9">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>260.2</v>
-      </c>
-      <c r="AA9">
-        <v>482.4</v>
-      </c>
-      <c r="AB9">
-        <v>3956.68</v>
-      </c>
-      <c r="AF9">
-        <v>17.603000999999999</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM9">
-        <v>17.46</v>
-      </c>
-      <c r="AN9">
-        <v>25.39</v>
-      </c>
-      <c r="AO9">
-        <v>45.42</v>
-      </c>
-      <c r="AP9">
-        <v>82</v>
-      </c>
-      <c r="AQ9">
-        <v>55.811194881567253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10" t="s">
         <v>70</v>
       </c>
       <c r="B10">
-        <v>97.100903614457835</v>
+        <v>74.896577660774739</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>430.8</v>
       </c>
       <c r="E10">
-        <v>53.67</v>
+        <v>-0.68000488281251137</v>
       </c>
       <c r="F10">
-        <v>2.5623085494355138</v>
+        <v>14.72</v>
       </c>
       <c r="G10">
-        <v>17.010000000000002</v>
+        <v>-0.594204625970569</v>
       </c>
       <c r="H10">
-        <v>2.487162888104236</v>
+        <v>3.21</v>
       </c>
       <c r="I10">
-        <v>10.08</v>
+        <v>-0.70127528757042168</v>
       </c>
       <c r="J10">
-        <v>2.4917956419207909</v>
+        <v>2.15</v>
       </c>
       <c r="K10">
-        <v>1.1400000095367431</v>
+        <v>-0.81018882170590256</v>
       </c>
       <c r="L10">
-        <v>1.144999992847443</v>
+        <v>427.67999267578119</v>
       </c>
       <c r="M10">
-        <v>0.82880000114440922</v>
+        <v>428.41999969482418</v>
       </c>
       <c r="N10">
-        <v>0.63455000013113017</v>
+        <v>395.04799987792973</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>344.37999984741208</v>
       </c>
       <c r="P10">
-        <v>1.38</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1.08</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1899,60 +1912,63 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" t="b">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>6.666666666666667</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
       </c>
       <c r="Y10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>0.48</v>
+        <v>0</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>2.1800000000000002</v>
+        <v>260.2</v>
       </c>
       <c r="AB10">
-        <v>11.45</v>
-      </c>
-      <c r="AF10">
-        <v>1.87</v>
-      </c>
-      <c r="AJ10" t="s">
+        <v>482.4</v>
+      </c>
+      <c r="AC10">
+        <v>3956.68</v>
+      </c>
+      <c r="AG10">
+        <v>17.603000999999999</v>
+      </c>
+      <c r="AK10" t="s">
         <v>71</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>53</v>
       </c>
       <c r="AL10" t="s">
         <v>72</v>
       </c>
-      <c r="AM10">
-        <v>0.03</v>
+      <c r="AM10" t="s">
+        <v>73</v>
       </c>
       <c r="AN10">
-        <v>0.09</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AO10">
-        <v>200</v>
+        <v>25.39</v>
       </c>
       <c r="AP10">
-        <v>63.2</v>
+        <v>45.92</v>
       </c>
       <c r="AQ10">
-        <v>55.657415786792221</v>
+        <v>82</v>
+      </c>
+      <c r="AR10">
+        <v>55.217147829693339</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11">
-        <v>56.25</v>
+        <v>56.299360661902973</v>
       </c>
       <c r="C11">
         <v>149</v>
@@ -1961,44 +1977,44 @@
         <v>5</v>
       </c>
       <c r="E11">
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="F11">
         <v>27.63</v>
       </c>
-      <c r="F11">
-        <v>0.46804014838177033</v>
-      </c>
       <c r="G11">
+        <v>0.44281876826075039</v>
+      </c>
+      <c r="H11">
         <v>6.32</v>
       </c>
-      <c r="H11">
-        <v>2.877582421097884E-2</v>
-      </c>
       <c r="I11">
+        <v>9.5636650419161206E-3</v>
+      </c>
+      <c r="J11">
         <v>4.05</v>
       </c>
-      <c r="J11">
-        <v>-3.820307615057218E-3</v>
-      </c>
       <c r="K11">
+        <v>-2.638026044144938E-2</v>
+      </c>
+      <c r="L11">
         <v>4.860000038146973</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.8969999909400936</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4.4347999954223631</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4.9150999963283537</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.99</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
@@ -2006,63 +2022,66 @@
         <v>0</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>8</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>13.33333333333333</v>
       </c>
-      <c r="W11" t="b">
-        <v>0</v>
-      </c>
       <c r="X11" t="b">
         <v>0</v>
       </c>
       <c r="Y11" t="b">
         <v>0</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11">
         <v>3.62</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>6.6</v>
       </c>
-      <c r="AB11">
-        <v>63.17</v>
-      </c>
-      <c r="AF11">
+      <c r="AC11">
+        <v>61.56</v>
+      </c>
+      <c r="AG11">
         <v>7.1349999999999998</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>58</v>
-      </c>
       <c r="AK11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AL11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM11">
+        <v>54</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11">
         <v>0.48</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>0.68</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>41.67</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>11.6</v>
       </c>
-      <c r="AQ11">
-        <v>54.585878267067812</v>
+      <c r="AR11">
+        <v>53.867307041708798</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>53.953313253012048</v>
+        <v>54.005265137269653</v>
       </c>
       <c r="C12">
         <v>101</v>
@@ -2071,79 +2090,79 @@
         <v>17.2</v>
       </c>
       <c r="E12">
+        <v>0.1360000610351548</v>
+      </c>
+      <c r="F12">
         <v>13.79</v>
       </c>
-      <c r="F12">
-        <v>-0.64503589559066976</v>
-      </c>
       <c r="G12">
+        <v>-0.66878799702318981</v>
+      </c>
+      <c r="H12">
         <v>3.05</v>
       </c>
-      <c r="H12">
-        <v>-0.72322845071240294</v>
-      </c>
       <c r="I12">
+        <v>-0.73784578030932013</v>
+      </c>
+      <c r="J12">
         <v>2.54</v>
       </c>
-      <c r="J12">
-        <v>-0.62875896164476386</v>
-      </c>
       <c r="K12">
+        <v>-0.64930180123583059</v>
+      </c>
+      <c r="L12">
         <v>16.960000228881839</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17.05400009155273</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>15.95679998397827</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>15.40050001621246</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.99</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1.06</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
         <v>3</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>6.1111111111111107</v>
       </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12">
         <v>10.7</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>20.100000000000001</v>
       </c>
-      <c r="AB12">
-        <v>493.5</v>
-      </c>
-      <c r="AF12">
+      <c r="AC12">
+        <v>499.05</v>
+      </c>
+      <c r="AG12">
         <v>21.895</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>76</v>
       </c>
       <c r="AK12" t="s">
         <v>77</v>
@@ -2151,28 +2170,31 @@
       <c r="AL12" t="s">
         <v>78</v>
       </c>
-      <c r="AM12">
-        <v>1.08</v>
+      <c r="AM12" t="s">
+        <v>79</v>
       </c>
       <c r="AN12">
+        <v>1.07</v>
+      </c>
+      <c r="AO12">
         <v>1.48</v>
       </c>
-      <c r="AO12">
-        <v>37.04</v>
-      </c>
       <c r="AP12">
+        <v>38.32</v>
+      </c>
+      <c r="AQ12">
         <v>81.5</v>
       </c>
-      <c r="AQ12">
-        <v>53.469052758761507</v>
+      <c r="AR12">
+        <v>52.961246060157187</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>92.507530120481931</v>
+        <v>92.515983452425715</v>
       </c>
       <c r="C13">
         <v>92</v>
@@ -2181,79 +2203,79 @@
         <v>5.51</v>
       </c>
       <c r="E13">
+        <v>-7.3999977111816051E-2</v>
+      </c>
+      <c r="F13">
         <v>23.48</v>
       </c>
-      <c r="F13">
-        <v>0.1341783365057955</v>
-      </c>
       <c r="G13">
+        <v>0.10939765946858521</v>
+      </c>
+      <c r="H13">
         <v>5.68</v>
       </c>
-      <c r="H13">
-        <v>-0.1184054406058299</v>
-      </c>
       <c r="I13">
+        <v>-0.13671830591367759</v>
+      </c>
+      <c r="J13">
         <v>3.85</v>
       </c>
-      <c r="J13">
-        <v>-8.6593639274620909E-2</v>
-      </c>
       <c r="K13">
+        <v>-0.1088864247850759</v>
+      </c>
+      <c r="L13">
         <v>5.7320000648498537</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>5.4845000028610231</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4.515400004386902</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>4.0409000051021584</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1.05</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1.27</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
       <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
         <v>9</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>18.333333333333329</v>
       </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13">
         <v>3.39</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>6.9</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>49.96</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>13.553001</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>80</v>
       </c>
       <c r="AK13" t="s">
         <v>81</v>
@@ -2261,28 +2283,31 @@
       <c r="AL13" t="s">
         <v>82</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN13">
         <v>0.43</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>0.47</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>10.6</v>
       </c>
-      <c r="AQ13">
-        <v>50.769073666742052</v>
+      <c r="AR13">
+        <v>49.391490319193551</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
+    <row r="14" spans="1:44">
+      <c r="A14" t="s">
+        <v>84</v>
       </c>
       <c r="B14">
-        <v>91.547439759036138</v>
+        <v>91.556976306882291</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -2291,79 +2316,79 @@
         <v>24.55</v>
       </c>
       <c r="E14">
+        <v>0.25</v>
+      </c>
+      <c r="F14">
         <v>14.12</v>
       </c>
-      <c r="F14">
-        <v>-0.61828177471885082</v>
-      </c>
       <c r="G14">
+        <v>-0.64206919203103563</v>
+      </c>
+      <c r="H14">
         <v>3.71</v>
       </c>
-      <c r="H14">
-        <v>-0.57144777137006897</v>
-      </c>
       <c r="I14">
+        <v>-0.5869924977613642</v>
+      </c>
+      <c r="J14">
         <v>2.86</v>
       </c>
-      <c r="J14">
-        <v>-0.4963216309894618</v>
-      </c>
       <c r="K14">
+        <v>-0.51729193828602793</v>
+      </c>
+      <c r="L14">
         <v>23.52000007629395</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>22.524999904632569</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>19.796399860382081</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>16.783399963378901</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.04</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.19</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>8</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>14.444444444444439</v>
       </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
       <c r="X14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="b">
         <v>1</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14">
         <v>11.56</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>26.2</v>
       </c>
-      <c r="AB14">
-        <v>623.29</v>
-      </c>
-      <c r="AF14">
+      <c r="AC14">
+        <v>612.49</v>
+      </c>
+      <c r="AG14">
         <v>11.476000000000001</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>84</v>
       </c>
       <c r="AK14" t="s">
         <v>85</v>
@@ -2371,28 +2396,31 @@
       <c r="AL14" t="s">
         <v>86</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN14">
         <v>0.81</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>0.87</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>7.41</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>38.9</v>
       </c>
-      <c r="AQ14">
-        <v>50.336336050118703</v>
+      <c r="AR14">
+        <v>48.864760141923227</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
-      <c r="A15" s="3" t="s">
-        <v>87</v>
+    <row r="15" spans="1:44">
+      <c r="A15" t="s">
+        <v>88</v>
       </c>
       <c r="B15">
-        <v>68.618222891566262</v>
+        <v>68.653629183903718</v>
       </c>
       <c r="C15">
         <v>64</v>
@@ -2401,44 +2429,44 @@
         <v>11.58</v>
       </c>
       <c r="E15">
+        <v>0.24799995422363169</v>
+      </c>
+      <c r="F15">
         <v>14.09</v>
       </c>
-      <c r="F15">
-        <v>-0.62073150680332545</v>
-      </c>
       <c r="G15">
+        <v>-0.64451569042885981</v>
+      </c>
+      <c r="H15">
         <v>3.84</v>
       </c>
-      <c r="H15">
-        <v>-0.54155157695415479</v>
-      </c>
       <c r="I15">
+        <v>-0.55727897241100921</v>
+      </c>
+      <c r="J15">
         <v>2.71</v>
       </c>
-      <c r="J15">
-        <v>-0.55840162973413465</v>
-      </c>
       <c r="K15">
+        <v>-0.57917156154374794</v>
+      </c>
+      <c r="L15">
         <v>11.068000030517579</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>10.506500053405761</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>9.927200012207031</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>9.8837499952316286</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.05</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
         <v>0</v>
       </c>
@@ -2451,58 +2479,61 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15" t="b">
+      <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="b">
         <v>1</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA15">
         <v>7.62</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>12.26</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>143.65</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>19.667000000000002</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>88</v>
-      </c>
       <c r="AK15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AL15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM15">
-        <v>0.62</v>
+        <v>86</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>90</v>
       </c>
       <c r="AN15">
+        <v>0.63</v>
+      </c>
+      <c r="AO15">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AO15">
-        <v>83.87</v>
-      </c>
       <c r="AP15">
+        <v>80.95</v>
+      </c>
+      <c r="AQ15">
         <v>37.9</v>
       </c>
-      <c r="AQ15">
-        <v>46.428737934999063</v>
+      <c r="AR15">
+        <v>45.749678816886778</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16">
-        <v>78.463855421686745</v>
+        <v>78.488153441143282</v>
       </c>
       <c r="C16">
         <v>150</v>
@@ -2511,44 +2542,44 @@
         <v>0.8</v>
       </c>
       <c r="E16">
+        <v>-3.9999961853027788E-3</v>
+      </c>
+      <c r="F16">
         <v>31.53</v>
       </c>
-      <c r="F16">
-        <v>0.78185797299260185</v>
-      </c>
       <c r="G16">
+        <v>0.75622234818069234</v>
+      </c>
+      <c r="H16">
         <v>6.07</v>
       </c>
-      <c r="H16">
-        <v>-2.8716857358087041E-2</v>
-      </c>
       <c r="I16">
+        <v>-4.7577729862612633E-2</v>
+      </c>
+      <c r="J16">
         <v>3.94</v>
       </c>
-      <c r="J16">
-        <v>-4.9345640027817259E-2</v>
-      </c>
       <c r="K16">
+        <v>-7.1758650830443985E-2</v>
+      </c>
+      <c r="L16">
         <v>0.80199999809265132</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.79849999547004702</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.75360000014305117</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.66502500161528588</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>1.06</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -2561,58 +2592,61 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16" t="b">
+      <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
       </c>
       <c r="Y16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16">
         <v>0.47</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>5.22</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>4.4269999999999996</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>91</v>
-      </c>
       <c r="AK16" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="AL16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM16">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN16">
         <v>0.11</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.18</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>63.64</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>53.8</v>
       </c>
-      <c r="AQ16">
-        <v>46.264017230913787</v>
+      <c r="AR16">
+        <v>45.738017787785033</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17">
-        <v>86.144578313253021</v>
+        <v>86.160210605490789</v>
       </c>
       <c r="C17">
         <v>43</v>
@@ -2621,44 +2655,44 @@
         <v>3.78</v>
       </c>
       <c r="E17">
+        <v>9.9999904632568359E-3</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>-0.46725590592891908</v>
-      </c>
       <c r="G17">
+        <v>-0.49124267987233028</v>
+      </c>
+      <c r="H17">
         <v>3.51</v>
       </c>
-      <c r="H17">
-        <v>-0.61744191662532177</v>
-      </c>
       <c r="I17">
+        <v>-0.63270561368498723</v>
+      </c>
+      <c r="J17">
         <v>2.46</v>
       </c>
-      <c r="J17">
-        <v>-0.6618682943085894</v>
-      </c>
       <c r="K17">
+        <v>-0.68230426697328128</v>
+      </c>
+      <c r="L17">
         <v>3.7159999847412108</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3.671999990940094</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3.3340000009536741</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3.0332999992370611</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.01</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
         <v>0</v>
       </c>
@@ -2671,29 +2705,29 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17" t="b">
+      <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
       <c r="Y17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <v>2.29</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>4.25</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>68.819999999999993</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>12.869</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>94</v>
       </c>
       <c r="AK17" t="s">
         <v>95</v>
@@ -2701,28 +2735,31 @@
       <c r="AL17" t="s">
         <v>96</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN17">
         <v>0.13</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.17</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>30.77</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>139.69999999999999</v>
       </c>
-      <c r="AQ17">
-        <v>46.103050895881672</v>
+      <c r="AR17">
+        <v>45.247714687082883</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18">
-        <v>95.143072289156621</v>
+        <v>95.148552087250849</v>
       </c>
       <c r="C18">
         <v>104</v>
@@ -2731,44 +2768,44 @@
         <v>5.21</v>
       </c>
       <c r="E18">
+        <v>-2.600002288818359E-2</v>
+      </c>
+      <c r="F18">
         <v>47.77</v>
       </c>
-      <c r="F18">
-        <v>2.087654500212512</v>
-      </c>
       <c r="G18">
+        <v>2.0602952025039021</v>
+      </c>
+      <c r="H18">
         <v>15.86</v>
       </c>
-      <c r="H18">
-        <v>2.222696552886533</v>
-      </c>
       <c r="I18">
+        <v>2.1900792945987329</v>
+      </c>
+      <c r="J18">
         <v>9.23</v>
       </c>
-      <c r="J18">
-        <v>2.1400089823676449</v>
-      </c>
       <c r="K18">
+        <v>2.1105293960584812</v>
+      </c>
+      <c r="L18">
         <v>4.9920000076293949</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5.044999980926514</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3.9703999900817868</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3.392699989080429</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.99</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1.26</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
         <v>0</v>
       </c>
@@ -2781,58 +2818,61 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" t="b">
+      <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
       </c>
       <c r="Y18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18">
         <v>2.84</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>8.9600000000000009</v>
       </c>
-      <c r="AB18">
-        <v>92.46</v>
-      </c>
-      <c r="AF18">
+      <c r="AC18">
+        <v>91.66</v>
+      </c>
+      <c r="AG18">
         <v>3.746</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>48</v>
       </c>
       <c r="AK18" t="s">
         <v>53</v>
       </c>
       <c r="AL18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM18">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN18">
         <v>0.36</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.46</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>27.78</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>158.80000000000001</v>
       </c>
-      <c r="AQ18">
-        <v>46.059135240924242</v>
+      <c r="AR18">
+        <v>45.157970905047449</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19">
-        <v>96.329066265060234</v>
+        <v>96.333207972922153</v>
       </c>
       <c r="C19">
         <v>185</v>
@@ -2841,44 +2881,44 @@
         <v>14.62</v>
       </c>
       <c r="E19">
+        <v>0.18400001525878909</v>
+      </c>
+      <c r="F19">
         <v>19.88</v>
       </c>
-      <c r="F19">
-        <v>-0.15524812311355901</v>
-      </c>
       <c r="G19">
+        <v>-0.17964675246291409</v>
+      </c>
+      <c r="H19">
         <v>6.2</v>
       </c>
-      <c r="H19">
-        <v>1.179337057827192E-3</v>
-      </c>
       <c r="I19">
+        <v>-1.786420451225771E-2</v>
+      </c>
+      <c r="J19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J19">
-        <v>0.14103302278917959</v>
-      </c>
       <c r="K19">
+        <v>0.1180055271598975</v>
+      </c>
+      <c r="L19">
         <v>14.123999786376951</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>12.77849998474121</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>10.45140000343323</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>8.1118999791145328</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1.35</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
         <v>0</v>
       </c>
@@ -2886,63 +2926,66 @@
         <v>0</v>
       </c>
       <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <v>4</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>6.666666666666667</v>
       </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
       <c r="X19" t="b">
         <v>0</v>
       </c>
       <c r="Y19" t="b">
         <v>0</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>5.62</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>16.600000000000001</v>
       </c>
-      <c r="AB19">
-        <v>52.7</v>
-      </c>
-      <c r="AF19">
+      <c r="AC19">
+        <v>52.54</v>
+      </c>
+      <c r="AG19">
         <v>9.1590000000000007</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>71</v>
-      </c>
       <c r="AK19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AL19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM19">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN19">
         <v>1.67</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>35.33</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>15.4</v>
       </c>
-      <c r="AQ19">
-        <v>45.068093363877992</v>
+      <c r="AR19">
+        <v>44.274942746358413</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20">
-        <v>95.801957831325296</v>
+        <v>95.806694245957118</v>
       </c>
       <c r="C20">
         <v>28</v>
@@ -2951,44 +2994,44 @@
         <v>6.76</v>
       </c>
       <c r="E20">
+        <v>-5.9999465942377483E-3</v>
+      </c>
+      <c r="F20">
         <v>45.18</v>
       </c>
-      <c r="F20">
-        <v>1.8796735828775311</v>
-      </c>
       <c r="G20">
+        <v>1.852588823401156</v>
+      </c>
+      <c r="H20">
         <v>11.98</v>
       </c>
-      <c r="H20">
-        <v>1.33041013493463</v>
-      </c>
       <c r="I20">
+        <v>1.3032448456804471</v>
+      </c>
+      <c r="J20">
         <v>7.14</v>
       </c>
-      <c r="J20">
-        <v>1.2750276665252029</v>
-      </c>
       <c r="K20">
+        <v>1.248339978667582</v>
+      </c>
+      <c r="L20">
         <v>6.4980000495910648</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>6.5560000181198124</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5.0073999977111816</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>4.2907500052452088</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.99</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1.3</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
         <v>0</v>
       </c>
@@ -2996,63 +3039,66 @@
         <v>0</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>9</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>15</v>
       </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
       <c r="Y20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA20">
         <v>3.53</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>11</v>
       </c>
-      <c r="AB20">
-        <v>145.56</v>
-      </c>
-      <c r="AF20">
+      <c r="AC20">
+        <v>141.6</v>
+      </c>
+      <c r="AG20">
         <v>5.83</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>48</v>
       </c>
       <c r="AK20" t="s">
         <v>53</v>
       </c>
       <c r="AL20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM20">
+        <v>50</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN20">
         <v>0.62</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.74</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>19.350000000000001</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>2.5</v>
       </c>
-      <c r="AQ20">
-        <v>44.429796911665477</v>
+      <c r="AR20">
+        <v>43.367931053280969</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21">
-        <v>90.549698795180717</v>
+        <v>90.560361037984208</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -3061,44 +3107,44 @@
         <v>49.95</v>
       </c>
       <c r="E21">
+        <v>0.35999984741211222</v>
+      </c>
+      <c r="F21">
         <v>21.15</v>
       </c>
-      <c r="F21">
-        <v>-5.276141316972479E-2</v>
-      </c>
       <c r="G21">
+        <v>-7.7295326662144795E-2</v>
+      </c>
+      <c r="H21">
         <v>6.02</v>
       </c>
-      <c r="H21">
-        <v>-4.0215393671900378E-2</v>
-      </c>
       <c r="I21">
+        <v>-5.9006008843518552E-2</v>
+      </c>
+      <c r="J21">
         <v>3.75</v>
       </c>
-      <c r="J21">
-        <v>-0.12798030510440281</v>
-      </c>
       <c r="K21">
+        <v>-0.1501395069568893</v>
+      </c>
+      <c r="L21">
         <v>49.900000762939463</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>47.560000419616699</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>39.9</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>36.509999952316292</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1.05</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1.25</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
         <v>0</v>
       </c>
@@ -3106,63 +3152,66 @@
         <v>0</v>
       </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>2</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3.333333333333333</v>
       </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
       <c r="X21" t="b">
         <v>0</v>
       </c>
       <c r="Y21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21">
         <v>29.55</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>59.8</v>
       </c>
-      <c r="AB21">
-        <v>1047.23</v>
-      </c>
-      <c r="AF21">
+      <c r="AC21">
+        <v>1043.46</v>
+      </c>
+      <c r="AG21">
         <v>9.1470000000000002</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>101</v>
-      </c>
       <c r="AK21" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM21">
-        <v>5.46</v>
+        <v>50</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>51</v>
       </c>
       <c r="AN21">
+        <v>5.44</v>
+      </c>
+      <c r="AO21">
         <v>7.43</v>
       </c>
-      <c r="AO21">
-        <v>36.08</v>
-      </c>
       <c r="AP21">
+        <v>36.58</v>
+      </c>
+      <c r="AQ21">
         <v>20.399999999999999</v>
       </c>
-      <c r="AQ21">
-        <v>41.80439013898954</v>
+      <c r="AR21">
+        <v>41.12756748714942</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
-      <c r="A22" s="3" t="s">
-        <v>102</v>
+    <row r="22" spans="1:44">
+      <c r="A22" t="s">
+        <v>103</v>
       </c>
       <c r="B22">
-        <v>79.480421686746979</v>
+        <v>79.503572771718694</v>
       </c>
       <c r="C22">
         <v>91</v>
@@ -3171,44 +3220,44 @@
         <v>4.91</v>
       </c>
       <c r="E22">
+        <v>4.6000003814697273E-2</v>
+      </c>
+      <c r="F22">
         <v>9.5299999999999994</v>
       </c>
-      <c r="F22">
-        <v>-0.98735491984798163</v>
-      </c>
       <c r="G22">
+        <v>-1.0106551545372251</v>
+      </c>
+      <c r="H22">
         <v>3.38</v>
       </c>
-      <c r="H22">
-        <v>-0.64733811104123595</v>
-      </c>
       <c r="I22">
+        <v>-0.66241913903534211</v>
+      </c>
+      <c r="J22">
         <v>2.37</v>
       </c>
-      <c r="J22">
-        <v>-0.69911629355539295</v>
-      </c>
       <c r="K22">
+        <v>-0.71943204092791324</v>
+      </c>
+      <c r="L22">
         <v>4.8560000419616696</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4.3580000042915348</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>4.0388000011444092</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>4.060850007534027</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1.2</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
@@ -3221,58 +3270,61 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" t="b">
+      <c r="W22">
         <v>0</v>
       </c>
       <c r="X22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="b">
         <v>1</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22">
         <v>3.02</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>5.14</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>54.41</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>23.616</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>103</v>
-      </c>
       <c r="AK22" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AL22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM22">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN22">
         <v>0.3</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.4</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>33.33</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>53.5</v>
       </c>
-      <c r="AQ22">
-        <v>41.478963505566398</v>
+      <c r="AR22">
+        <v>40.659558973145678</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>53.953313253012048</v>
+        <v>54.005265137269653</v>
       </c>
       <c r="C23">
         <v>131</v>
@@ -3281,108 +3333,111 @@
         <v>5.23</v>
       </c>
       <c r="E23">
+        <v>3.5999965667723899E-2</v>
+      </c>
+      <c r="F23">
         <v>19.61</v>
       </c>
-      <c r="F23">
-        <v>-0.17709768940119461</v>
-      </c>
       <c r="G23">
+        <v>-0.20146747696361769</v>
+      </c>
+      <c r="H23">
         <v>4.6399999999999997</v>
       </c>
-      <c r="H23">
-        <v>-0.35757499593314401</v>
-      </c>
       <c r="I23">
+        <v>-0.37442650871651728</v>
+      </c>
+      <c r="J23">
         <v>3.3</v>
       </c>
-      <c r="J23">
-        <v>-0.31422030133842138</v>
-      </c>
       <c r="K23">
+        <v>-0.33577837673004929</v>
+      </c>
+      <c r="L23">
         <v>5.2319999694824224</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>5.0765000104904177</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4.9088000202178952</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>4.4464500200748436</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1.03</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1.07</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
         <v>2</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>8.3333333333333321</v>
       </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
       <c r="X23" t="b">
         <v>0</v>
       </c>
       <c r="Y23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23">
         <v>3.1</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>6.12</v>
       </c>
-      <c r="AB23">
-        <v>240.11</v>
-      </c>
-      <c r="AF23">
+      <c r="AC23">
+        <v>239.72</v>
+      </c>
+      <c r="AG23">
         <v>7.9710000000000001</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>52</v>
       </c>
       <c r="AK23" t="s">
         <v>49</v>
       </c>
       <c r="AL23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM23">
+        <v>54</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN23">
         <v>0.48</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>14.58</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>12.2</v>
       </c>
-      <c r="AQ23">
-        <v>39.953830503162571</v>
+      <c r="AR23">
+        <v>38.76812662645294</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24">
-        <v>88.667168674698786</v>
+        <v>88.679954870251976</v>
       </c>
       <c r="C24">
         <v>155</v>
@@ -3391,44 +3446,44 @@
         <v>0.69</v>
       </c>
       <c r="E24">
+        <v>5.9999942779540572E-3</v>
+      </c>
+      <c r="F24">
         <v>29.67</v>
       </c>
-      <c r="F24">
-        <v>0.63217210807942503</v>
-      </c>
       <c r="G24">
+        <v>0.60673407107158106</v>
+      </c>
+      <c r="H24">
         <v>9.25</v>
       </c>
-      <c r="H24">
-        <v>0.70259005220043091</v>
-      </c>
       <c r="I24">
+        <v>0.67926081332299304</v>
+      </c>
+      <c r="J24">
         <v>5.56</v>
       </c>
-      <c r="J24">
-        <v>0.62111834641464936</v>
-      </c>
       <c r="K24">
+        <v>0.59654128035293186</v>
+      </c>
+      <c r="L24">
         <v>0.68600001335144067</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.61675000488758092</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.55179999649524691</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.51244999676942826</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1.24</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
         <v>0</v>
       </c>
@@ -3441,29 +3496,29 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24" t="b">
+      <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
       <c r="Y24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24">
         <v>0.41</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.91</v>
       </c>
-      <c r="AB24">
-        <v>33.25</v>
-      </c>
-      <c r="AF24">
+      <c r="AC24">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="AG24">
         <v>8.5120000000000005</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>108</v>
       </c>
       <c r="AK24" t="s">
         <v>109</v>
@@ -3471,28 +3526,31 @@
       <c r="AL24" t="s">
         <v>110</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN24">
         <v>0.04</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.05</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>25</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>51.7</v>
       </c>
-      <c r="AQ24">
-        <v>39.206302805380957</v>
+      <c r="AR24">
+        <v>38.258038816768263</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B25">
-        <v>94.126506024096386</v>
+        <v>94.133132756675437</v>
       </c>
       <c r="C25">
         <v>179</v>
@@ -3501,44 +3559,44 @@
         <v>11.08</v>
       </c>
       <c r="E25">
+        <v>-4.7999954223630681E-2</v>
+      </c>
+      <c r="F25">
         <v>39.880000000000003</v>
       </c>
-      <c r="F25">
-        <v>1.4531807504968519</v>
-      </c>
       <c r="G25">
+        <v>1.4266589685751629</v>
+      </c>
+      <c r="H25">
         <v>11.51</v>
       </c>
-      <c r="H25">
-        <v>1.222323893584786</v>
-      </c>
       <c r="I25">
+        <v>1.1958190232599331</v>
+      </c>
+      <c r="J25">
         <v>6.89</v>
       </c>
-      <c r="J25">
-        <v>1.171561001950749</v>
-      </c>
       <c r="K25">
+        <v>1.1452072732380489</v>
+      </c>
+      <c r="L25">
         <v>10.73199996948242</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>10.38549990653992</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>8.0531999588012688</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>7.8289500021934506</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.03</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1.33</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -3546,63 +3604,66 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
         <v>1.666666666666667</v>
       </c>
-      <c r="W25" t="b">
-        <v>0</v>
-      </c>
       <c r="X25" t="b">
         <v>0</v>
       </c>
       <c r="Y25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25">
         <v>6.01</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>16.5</v>
       </c>
-      <c r="AB25">
-        <v>124.68</v>
-      </c>
-      <c r="AF25">
+      <c r="AC25">
+        <v>123.67</v>
+      </c>
+      <c r="AG25">
         <v>5.2939999999999996</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>58</v>
-      </c>
       <c r="AK25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AL25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM25">
+        <v>50</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN25">
         <v>0.86</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1.06</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>23.26</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>18.600000000000001</v>
       </c>
-      <c r="AQ25">
-        <v>35.695275027738447</v>
+      <c r="AR25">
+        <v>34.714894994452592</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
-      <c r="A26" s="3" t="s">
-        <v>112</v>
+    <row r="26" spans="1:44">
+      <c r="A26" t="s">
+        <v>113</v>
       </c>
       <c r="B26">
-        <v>86.144578313253021</v>
+        <v>86.160210605490789</v>
       </c>
       <c r="C26">
         <v>191</v>
@@ -3611,108 +3672,111 @@
         <v>31.3</v>
       </c>
       <c r="E26">
+        <v>9.9998474121107961E-3</v>
+      </c>
+      <c r="F26">
         <v>17.97</v>
       </c>
-      <c r="F26">
-        <v>-0.30883411415205198</v>
-      </c>
       <c r="G26">
+        <v>-0.3330300074666977</v>
+      </c>
+      <c r="H26">
         <v>4.07</v>
       </c>
-      <c r="H26">
-        <v>-0.4886583099106141</v>
-      </c>
       <c r="I26">
+        <v>-0.50470888909884271</v>
+      </c>
+      <c r="J26">
         <v>3.25</v>
       </c>
-      <c r="J26">
-        <v>-0.33491363425331228</v>
-      </c>
       <c r="K26">
+        <v>-0.35640491781595601</v>
+      </c>
+      <c r="L26">
         <v>31.499999618530271</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>30.259999752044681</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>26.286999931335451</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>25.516999959945679</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.04</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.2</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>4.4444444444444438</v>
       </c>
-      <c r="W26" t="b">
-        <v>0</v>
-      </c>
       <c r="X26" t="b">
         <v>0</v>
       </c>
       <c r="Y26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26">
         <v>20.100000000000001</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>36.450000000000003</v>
       </c>
-      <c r="AB26">
-        <v>298.18</v>
-      </c>
-      <c r="AF26">
+      <c r="AC26">
+        <v>301.87</v>
+      </c>
+      <c r="AG26">
         <v>17.713000000000001</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>60</v>
-      </c>
       <c r="AK26" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="AL26" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM26">
-        <v>2.13</v>
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>114</v>
       </c>
       <c r="AN26">
+        <v>2.12</v>
+      </c>
+      <c r="AO26">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AO26">
-        <v>15.96</v>
-      </c>
       <c r="AP26">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="AQ26">
         <v>13.2</v>
       </c>
-      <c r="AQ26">
-        <v>35.301348783099641</v>
+      <c r="AR26">
+        <v>34.409595502104267</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27">
-        <v>68.618222891566262</v>
+        <v>68.653629183903718</v>
       </c>
       <c r="C27">
         <v>140</v>
@@ -3721,878 +3785,902 @@
         <v>31.1</v>
       </c>
       <c r="E27">
+        <v>7.9999923706054688E-2</v>
+      </c>
+      <c r="F27">
         <v>20.83</v>
       </c>
-      <c r="F27">
-        <v>-7.8538173397680364E-2</v>
-      </c>
       <c r="G27">
+        <v>-0.1030380611425635</v>
+      </c>
+      <c r="H27">
         <v>6.69</v>
       </c>
-      <c r="H27">
-        <v>0.11386499293319639</v>
-      </c>
       <c r="I27">
+        <v>9.4132929500618703E-2</v>
+      </c>
+      <c r="J27">
         <v>4.4400000000000004</v>
       </c>
-      <c r="J27">
-        <v>0.15758768912109239</v>
-      </c>
       <c r="K27">
+        <v>0.13450676002862291</v>
+      </c>
+      <c r="L27">
         <v>31.550000381469729</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>30.11500005722046</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>26.077000083923341</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>30.372749996185298</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.05</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.21</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>2</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>3</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>7.2222222222222214</v>
       </c>
-      <c r="W27" t="b">
-        <v>0</v>
-      </c>
       <c r="X27" t="b">
         <v>0</v>
       </c>
       <c r="Y27" t="b">
         <v>0</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27">
         <v>21.6</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>45.3</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>100.89</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>14.673999999999999</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>115</v>
-      </c>
       <c r="AK27" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AL27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN27">
+        <v>1.76</v>
+      </c>
+      <c r="AO27">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AP27">
+        <v>28.41</v>
+      </c>
+      <c r="AQ27">
+        <v>1.2</v>
+      </c>
+      <c r="AR27">
+        <v>32.374790257760573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28">
+        <v>33.132756675441897</v>
+      </c>
+      <c r="C28">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>6.93</v>
+      </c>
+      <c r="E28">
+        <v>4.2000007629394709E-2</v>
+      </c>
+      <c r="F28">
+        <v>13.59</v>
+      </c>
+      <c r="G28">
+        <v>-0.68482991267626636</v>
+      </c>
+      <c r="H28">
+        <v>3.97</v>
+      </c>
+      <c r="I28">
+        <v>-0.52756544706065422</v>
+      </c>
+      <c r="J28">
+        <v>2.96</v>
+      </c>
+      <c r="K28">
+        <v>-0.47603885611421459</v>
+      </c>
+      <c r="L28">
+        <v>6.8999999046325682</v>
+      </c>
+      <c r="M28">
+        <v>6.7564999818801876</v>
+      </c>
+      <c r="N28">
+        <v>6.5566000080108644</v>
+      </c>
+      <c r="O28">
+        <v>6.0873000025749207</v>
+      </c>
+      <c r="P28">
+        <v>1.02</v>
+      </c>
+      <c r="Q28">
+        <v>1.05</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="X28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>4.45</v>
+      </c>
+      <c r="AB28">
+        <v>7.8</v>
+      </c>
+      <c r="AC28">
+        <v>212.04</v>
+      </c>
+      <c r="AG28">
+        <v>5.6449999999999996</v>
+      </c>
+      <c r="AK28" t="s">
         <v>116</v>
       </c>
-      <c r="AM27">
-        <v>1.76</v>
-      </c>
-      <c r="AN27">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AO27">
-        <v>28.41</v>
-      </c>
-      <c r="AP27">
-        <v>1.2</v>
-      </c>
-      <c r="AQ27">
-        <v>33.265914659725077</v>
+      <c r="AL28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN28">
+        <v>0.72</v>
+      </c>
+      <c r="AO28">
+        <v>0.81</v>
+      </c>
+      <c r="AP28">
+        <v>12.5</v>
+      </c>
+      <c r="AQ28">
+        <v>13</v>
+      </c>
+      <c r="AR28">
+        <v>29.817875397313749</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
-      <c r="A28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28">
-        <v>62.763554216867469</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-      <c r="D28">
+    <row r="29" spans="1:44">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>56.299360661902973</v>
+      </c>
+      <c r="C29">
+        <v>177</v>
+      </c>
+      <c r="D29">
+        <v>2.42</v>
+      </c>
+      <c r="E29">
+        <v>4.2000007629394709E-2</v>
+      </c>
+      <c r="F29">
+        <v>11.74</v>
+      </c>
+      <c r="G29">
+        <v>-0.83320321172021683</v>
+      </c>
+      <c r="H29">
+        <v>4.76</v>
+      </c>
+      <c r="I29">
+        <v>-0.34699863916234341</v>
+      </c>
+      <c r="J29">
+        <v>3.31</v>
+      </c>
+      <c r="K29">
+        <v>-0.33165306851286791</v>
+      </c>
+      <c r="L29">
+        <v>2.418000078201294</v>
+      </c>
+      <c r="M29">
+        <v>2.231500005722046</v>
+      </c>
+      <c r="N29">
+        <v>2.1754000091552741</v>
+      </c>
+      <c r="O29">
+        <v>1.98460000872612</v>
+      </c>
+      <c r="P29">
         <v>1.08</v>
       </c>
-      <c r="E28">
-        <v>10.17</v>
-      </c>
-      <c r="F28">
-        <v>-0.93617101932416891</v>
-      </c>
-      <c r="G28">
-        <v>3.03</v>
-      </c>
-      <c r="H28">
-        <v>-0.7278278652379282</v>
-      </c>
-      <c r="I28">
-        <v>1.98</v>
-      </c>
-      <c r="J28">
-        <v>-0.86052429029154243</v>
-      </c>
-      <c r="K28">
-        <v>1.0900000333786011</v>
-      </c>
-      <c r="L28">
-        <v>1.0514999985694891</v>
-      </c>
-      <c r="M28">
-        <v>1.000600003004074</v>
-      </c>
-      <c r="N28">
-        <v>0.94195000171661381</v>
-      </c>
-      <c r="O28">
-        <v>1.04</v>
-      </c>
-      <c r="P28">
+      <c r="Q29">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1.36</v>
+      </c>
+      <c r="AB29">
+        <v>2.64</v>
+      </c>
+      <c r="AC29">
+        <v>26.47</v>
+      </c>
+      <c r="AG29">
+        <v>4.8820000000000006</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN29">
+        <v>0.2</v>
+      </c>
+      <c r="AO29">
+        <v>0.22</v>
+      </c>
+      <c r="AP29">
+        <v>10</v>
+      </c>
+      <c r="AQ29">
+        <v>34.1</v>
+      </c>
+      <c r="AR29">
+        <v>29.16470379934076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30">
+        <v>66.867243324558103</v>
+      </c>
+      <c r="C30">
+        <v>157</v>
+      </c>
+      <c r="D30">
+        <v>2.72</v>
+      </c>
+      <c r="E30">
+        <v>3.4000015258788707E-2</v>
+      </c>
+      <c r="F30">
+        <v>15.77</v>
+      </c>
+      <c r="G30">
+        <v>-0.50957038524898146</v>
+      </c>
+      <c r="H30">
+        <v>3.42</v>
+      </c>
+      <c r="I30">
+        <v>-0.65327651585061752</v>
+      </c>
+      <c r="J30">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K30">
+        <v>-0.77306104775127049</v>
+      </c>
+      <c r="L30">
+        <v>2.6780000209808348</v>
+      </c>
+      <c r="M30">
+        <v>2.59099999666214</v>
+      </c>
+      <c r="N30">
+        <v>2.4505999946594241</v>
+      </c>
+      <c r="O30">
+        <v>2.4145999908447271</v>
+      </c>
+      <c r="P30">
+        <v>1.03</v>
+      </c>
+      <c r="Q30">
         <v>1.0900000000000001</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>0.71</v>
-      </c>
-      <c r="AA28">
-        <v>1.18</v>
-      </c>
-      <c r="AB28">
-        <v>190.09</v>
-      </c>
-      <c r="AF28">
-        <v>5.2610002000000007</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM28">
-        <v>0.06</v>
-      </c>
-      <c r="AN28">
-        <v>0.08</v>
-      </c>
-      <c r="AO28">
-        <v>33.33</v>
-      </c>
-      <c r="AP28">
-        <v>9</v>
-      </c>
-      <c r="AQ28">
-        <v>32.170893688175497</v>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>2.13</v>
+      </c>
+      <c r="AB30">
+        <v>2.98</v>
+      </c>
+      <c r="AC30">
+        <v>212.21</v>
+      </c>
+      <c r="AG30">
+        <v>7.4609999999999994</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN30">
+        <v>0.67</v>
+      </c>
+      <c r="AO30">
+        <v>0.7</v>
+      </c>
+      <c r="AP30">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AQ30">
+        <v>3.1</v>
+      </c>
+      <c r="AR30">
+        <v>28.079048557675289</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
-      <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29">
-        <v>33.132530120481931</v>
-      </c>
-      <c r="C29">
-        <v>65</v>
-      </c>
-      <c r="D29">
-        <v>6.93</v>
-      </c>
-      <c r="E29">
-        <v>13.59</v>
-      </c>
-      <c r="F29">
-        <v>-0.66109901482537947</v>
-      </c>
-      <c r="G29">
-        <v>3.97</v>
-      </c>
-      <c r="H29">
-        <v>-0.5116553825382405</v>
-      </c>
-      <c r="I29">
-        <v>2.96</v>
-      </c>
-      <c r="J29">
-        <v>-0.45493496515967979</v>
-      </c>
-      <c r="K29">
-        <v>6.8999999046325682</v>
-      </c>
-      <c r="L29">
-        <v>6.7564999818801876</v>
-      </c>
-      <c r="M29">
-        <v>6.5566000080108644</v>
-      </c>
-      <c r="N29">
-        <v>6.0873000025749207</v>
-      </c>
-      <c r="O29">
-        <v>1.02</v>
-      </c>
-      <c r="P29">
-        <v>1.05</v>
-      </c>
-      <c r="R29">
+    <row r="31" spans="1:44">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31">
+        <v>76.194057916509962</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>7.3999977111816495E-2</v>
+      </c>
+      <c r="F31">
+        <v>11.63</v>
+      </c>
+      <c r="G31">
+        <v>-0.84193914011883342</v>
+      </c>
+      <c r="H31">
+        <v>2.77</v>
+      </c>
+      <c r="I31">
+        <v>-0.80184414260239223</v>
+      </c>
+      <c r="J31">
+        <v>2.14</v>
+      </c>
+      <c r="K31">
+        <v>-0.81431412992308383</v>
+      </c>
+      <c r="L31">
+        <v>3.900000047683716</v>
+      </c>
+      <c r="M31">
+        <v>3.7885000109672551</v>
+      </c>
+      <c r="N31">
+        <v>3.6264000082015988</v>
+      </c>
+      <c r="O31">
+        <v>3.3864499974250788</v>
+      </c>
+      <c r="P31">
+        <v>1.03</v>
+      </c>
+      <c r="Q31">
+        <v>1.08</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>2.73</v>
+      </c>
+      <c r="AB31">
+        <v>4.04</v>
+      </c>
+      <c r="AC31">
+        <v>1850.61</v>
+      </c>
+      <c r="AG31">
+        <v>9.4329999999999998</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN31">
+        <v>0.79</v>
+      </c>
+      <c r="AO31">
+        <v>0.83</v>
+      </c>
+      <c r="AP31">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AQ31">
+        <v>6.2</v>
+      </c>
+      <c r="AR31">
+        <v>27.907690977167348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32">
+        <v>54.005265137269653</v>
+      </c>
+      <c r="C32">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="E32">
+        <v>0.90999984741210938</v>
+      </c>
+      <c r="F32">
+        <v>14.67</v>
+      </c>
+      <c r="G32">
+        <v>-0.5980453871988981</v>
+      </c>
+      <c r="H32">
+        <v>5.47</v>
+      </c>
+      <c r="I32">
+        <v>-0.1847170776334818</v>
+      </c>
+      <c r="J32">
+        <v>3.78</v>
+      </c>
+      <c r="K32">
+        <v>-0.13776358230534541</v>
+      </c>
+      <c r="L32">
+        <v>33.409999847412109</v>
+      </c>
+      <c r="M32">
+        <v>31.2</v>
+      </c>
+      <c r="N32">
+        <v>29.442999992370609</v>
+      </c>
+      <c r="O32">
+        <v>31.125500001907351</v>
+      </c>
+      <c r="P32">
+        <v>1.07</v>
+      </c>
+      <c r="Q32">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>23.2</v>
+      </c>
+      <c r="AB32">
+        <v>41.05</v>
+      </c>
+      <c r="AC32">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AG32">
+        <v>14.326000000000001</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN32">
+        <v>1.96</v>
+      </c>
+      <c r="AO32">
+        <v>3.11</v>
+      </c>
+      <c r="AP32">
+        <v>58.67</v>
+      </c>
+      <c r="AQ32">
+        <v>0.1</v>
+      </c>
+      <c r="AR32">
+        <v>26.083779140521571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33">
+        <v>74.896577660774739</v>
+      </c>
+      <c r="C33">
+        <v>105</v>
+      </c>
+      <c r="D33">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E33">
+        <v>0.121999979019165</v>
+      </c>
+      <c r="F33">
+        <v>14.54</v>
+      </c>
+      <c r="G33">
+        <v>-0.60871289023405273</v>
+      </c>
+      <c r="H33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I33">
+        <v>-0.49785192171029941</v>
+      </c>
+      <c r="J33">
+        <v>2.99</v>
+      </c>
+      <c r="K33">
+        <v>-0.46366293146267051</v>
+      </c>
+      <c r="L33">
+        <v>4.4579999923706053</v>
+      </c>
+      <c r="M33">
+        <v>4.1220000147819524</v>
+      </c>
+      <c r="N33">
+        <v>3.930999999046326</v>
+      </c>
+      <c r="O33">
+        <v>3.534550001621247</v>
+      </c>
+      <c r="P33">
+        <v>1.08</v>
+      </c>
+      <c r="Q33">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>2.73</v>
+      </c>
+      <c r="AB33">
+        <v>4.68</v>
+      </c>
+      <c r="AC33">
+        <v>67.709999999999994</v>
+      </c>
+      <c r="AG33">
+        <v>9.2569999999999997</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN33">
+        <v>1.06</v>
+      </c>
+      <c r="AO33">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AP33">
+        <v>4.72</v>
+      </c>
+      <c r="AQ33">
+        <v>26.3</v>
+      </c>
+      <c r="AR33">
+        <v>23.381370887903788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34">
+        <v>81.459195186160215</v>
+      </c>
+      <c r="C34">
+        <v>182</v>
+      </c>
+      <c r="D34">
+        <v>9.75</v>
+      </c>
+      <c r="E34">
+        <v>8.1999969482421164E-2</v>
+      </c>
+      <c r="F34">
+        <v>11.34</v>
+      </c>
+      <c r="G34">
+        <v>-0.86566289278354358</v>
+      </c>
+      <c r="H34">
+        <v>3.39</v>
+      </c>
+      <c r="I34">
+        <v>-0.66013348323916099</v>
+      </c>
+      <c r="J34">
+        <v>2.63</v>
+      </c>
+      <c r="K34">
+        <v>-0.61217402728119863</v>
+      </c>
+      <c r="L34">
+        <v>9.8100000381469723</v>
+      </c>
+      <c r="M34">
+        <v>9.5329999923706055</v>
+      </c>
+      <c r="N34">
+        <v>9.0028000164031976</v>
+      </c>
+      <c r="O34">
+        <v>8.4961000204086297</v>
+      </c>
+      <c r="P34">
+        <v>1.03</v>
+      </c>
+      <c r="Q34">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
         <v>2</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>2.7777777777777781</v>
-      </c>
-      <c r="W29" t="b">
-        <v>0</v>
-      </c>
-      <c r="X29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>4.45</v>
-      </c>
-      <c r="AA29">
-        <v>7.8</v>
-      </c>
-      <c r="AB29">
-        <v>212.04</v>
-      </c>
-      <c r="AF29">
-        <v>5.6449999999999996</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM29">
-        <v>0.72</v>
-      </c>
-      <c r="AN29">
-        <v>0.81</v>
-      </c>
-      <c r="AO29">
-        <v>12.5</v>
-      </c>
-      <c r="AP29">
-        <v>13</v>
-      </c>
-      <c r="AQ29">
-        <v>31.070019775472019</v>
+      <c r="W34">
+        <v>10.555555555555561</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>5.75</v>
+      </c>
+      <c r="AB34">
+        <v>10.76</v>
+      </c>
+      <c r="AC34">
+        <v>179.54</v>
+      </c>
+      <c r="AG34">
+        <v>12.646000000000001</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN34">
+        <v>1.44</v>
+      </c>
+      <c r="AO34">
+        <v>1.47</v>
+      </c>
+      <c r="AP34">
+        <v>2.08</v>
+      </c>
+      <c r="AQ34">
+        <v>3</v>
+      </c>
+      <c r="AR34">
+        <v>22.534002947905179</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30">
-        <v>56.25</v>
-      </c>
-      <c r="C30">
-        <v>177</v>
-      </c>
-      <c r="D30">
-        <v>2.42</v>
-      </c>
-      <c r="E30">
-        <v>11.74</v>
-      </c>
-      <c r="F30">
-        <v>-0.80966842793865379</v>
-      </c>
-      <c r="G30">
-        <v>4.76</v>
-      </c>
-      <c r="H30">
-        <v>-0.32997850877999241</v>
-      </c>
-      <c r="I30">
-        <v>3.31</v>
-      </c>
-      <c r="J30">
-        <v>-0.3100816347554432</v>
-      </c>
-      <c r="K30">
-        <v>2.418000078201294</v>
-      </c>
-      <c r="L30">
-        <v>2.231500005722046</v>
-      </c>
-      <c r="M30">
-        <v>2.1754000091552741</v>
-      </c>
-      <c r="N30">
-        <v>1.98460000872612</v>
-      </c>
-      <c r="O30">
-        <v>1.08</v>
-      </c>
-      <c r="P30">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30" t="b">
-        <v>0</v>
-      </c>
-      <c r="X30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>1.36</v>
-      </c>
-      <c r="AA30">
-        <v>2.64</v>
-      </c>
-      <c r="AB30">
-        <v>25.79</v>
-      </c>
-      <c r="AF30">
-        <v>4.8820000000000006</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM30">
-        <v>0.2</v>
-      </c>
-      <c r="AN30">
-        <v>0.22</v>
-      </c>
-      <c r="AO30">
-        <v>10</v>
-      </c>
-      <c r="AP30">
-        <v>34.1</v>
-      </c>
-      <c r="AQ30">
-        <v>30.51180142012522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31">
-        <v>66.829819277108442</v>
-      </c>
-      <c r="C31">
-        <v>157</v>
-      </c>
-      <c r="D31">
-        <v>2.72</v>
-      </c>
-      <c r="E31">
-        <v>15.77</v>
-      </c>
-      <c r="F31">
-        <v>-0.48560783615536429</v>
-      </c>
-      <c r="G31">
-        <v>3.42</v>
-      </c>
-      <c r="H31">
-        <v>-0.63813928199018544</v>
-      </c>
-      <c r="I31">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="J31">
-        <v>-0.75291895913410944</v>
-      </c>
-      <c r="K31">
-        <v>2.6780000209808348</v>
-      </c>
-      <c r="L31">
-        <v>2.59099999666214</v>
-      </c>
-      <c r="M31">
-        <v>2.4505999946594241</v>
-      </c>
-      <c r="N31">
-        <v>2.4145999908447271</v>
-      </c>
-      <c r="O31">
-        <v>1.03</v>
-      </c>
-      <c r="P31">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>4</v>
-      </c>
-      <c r="V31">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="W31" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>2.13</v>
-      </c>
-      <c r="AA31">
-        <v>2.98</v>
-      </c>
-      <c r="AB31">
-        <v>214.65</v>
-      </c>
-      <c r="AF31">
-        <v>7.4609999999999994</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM31">
-        <v>0.67</v>
-      </c>
-      <c r="AN31">
-        <v>0.7</v>
-      </c>
-      <c r="AO31">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="AP31">
-        <v>3.1</v>
-      </c>
-      <c r="AQ31">
-        <v>29.74921400727052</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43">
-      <c r="A32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32">
-        <v>76.167168674698786</v>
-      </c>
-      <c r="C32">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>11.63</v>
-      </c>
-      <c r="F32">
-        <v>-0.81841590314844603</v>
-      </c>
-      <c r="G32">
-        <v>2.77</v>
-      </c>
-      <c r="H32">
-        <v>-0.78762025406975666</v>
-      </c>
-      <c r="I32">
-        <v>2.14</v>
-      </c>
-      <c r="J32">
-        <v>-0.79430562496389134</v>
-      </c>
-      <c r="K32">
-        <v>3.900000047683716</v>
-      </c>
-      <c r="L32">
-        <v>3.7885000109672551</v>
-      </c>
-      <c r="M32">
-        <v>3.6264000082015988</v>
-      </c>
-      <c r="N32">
-        <v>3.3864499974250788</v>
-      </c>
-      <c r="O32">
-        <v>1.03</v>
-      </c>
-      <c r="P32">
-        <v>1.08</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>7</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="W32" t="b">
-        <v>0</v>
-      </c>
-      <c r="X32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>2.73</v>
-      </c>
-      <c r="AA32">
-        <v>4.04</v>
-      </c>
-      <c r="AB32">
-        <v>1879.4</v>
-      </c>
-      <c r="AF32">
-        <v>9.4329999999999998</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM32">
-        <v>0.79</v>
-      </c>
-      <c r="AN32">
-        <v>0.83</v>
-      </c>
-      <c r="AO32">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="AP32">
-        <v>6.2</v>
-      </c>
-      <c r="AQ32">
-        <v>29.531210904154928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43">
-      <c r="A33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33">
-        <v>53.953313253012048</v>
-      </c>
-      <c r="C33">
-        <v>200</v>
-      </c>
-      <c r="D33">
-        <v>35.549999999999997</v>
-      </c>
-      <c r="E33">
-        <v>14.67</v>
-      </c>
-      <c r="F33">
-        <v>-0.57419978092974888</v>
-      </c>
-      <c r="G33">
-        <v>5.47</v>
-      </c>
-      <c r="H33">
-        <v>-0.16669929312384529</v>
-      </c>
-      <c r="I33">
-        <v>3.78</v>
-      </c>
-      <c r="J33">
-        <v>-0.1155643053554684</v>
-      </c>
-      <c r="K33">
-        <v>33.409999847412109</v>
-      </c>
-      <c r="L33">
-        <v>31.2</v>
-      </c>
-      <c r="M33">
-        <v>29.442999992370609</v>
-      </c>
-      <c r="N33">
-        <v>31.125500001907351</v>
-      </c>
-      <c r="O33">
-        <v>1.07</v>
-      </c>
-      <c r="P33">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="W33" t="b">
-        <v>0</v>
-      </c>
-      <c r="X33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z33">
-        <v>23.2</v>
-      </c>
-      <c r="AA33">
-        <v>41.05</v>
-      </c>
-      <c r="AB33">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="AF33">
-        <v>14.326000000000001</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM33">
-        <v>1.96</v>
-      </c>
-      <c r="AN33">
-        <v>3.11</v>
-      </c>
-      <c r="AO33">
-        <v>58.67</v>
-      </c>
-      <c r="AP33">
-        <v>0.1</v>
-      </c>
-      <c r="AQ33">
-        <v>26.646872575756252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43">
-      <c r="A34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34">
-        <v>74.868222891566262</v>
-      </c>
-      <c r="C34">
-        <v>105</v>
-      </c>
-      <c r="D34">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="E34">
-        <v>14.54</v>
-      </c>
-      <c r="F34">
-        <v>-0.58488138385648258</v>
-      </c>
-      <c r="G34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H34">
-        <v>-0.48175918812232632</v>
-      </c>
-      <c r="I34">
-        <v>2.99</v>
-      </c>
-      <c r="J34">
-        <v>-0.4425189654107452</v>
-      </c>
-      <c r="K34">
-        <v>4.4579999923706053</v>
-      </c>
-      <c r="L34">
-        <v>4.1220000147819524</v>
-      </c>
-      <c r="M34">
-        <v>3.930999999046326</v>
-      </c>
-      <c r="N34">
-        <v>3.534550001621247</v>
-      </c>
-      <c r="O34">
-        <v>1.08</v>
-      </c>
-      <c r="P34">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0.55555555555555547</v>
-      </c>
-      <c r="W34" t="b">
-        <v>0</v>
-      </c>
-      <c r="X34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>2.73</v>
-      </c>
-      <c r="AA34">
-        <v>4.68</v>
-      </c>
-      <c r="AB34">
-        <v>66.44</v>
-      </c>
-      <c r="AF34">
-        <v>9.2569999999999997</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM34">
-        <v>1.06</v>
-      </c>
-      <c r="AN34">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AO34">
-        <v>4.72</v>
-      </c>
-      <c r="AP34">
-        <v>26.3</v>
-      </c>
-      <c r="AQ34">
-        <v>25.031662515385509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B35">
-        <v>38.083584337349393</v>
+        <v>38.115833019932303</v>
       </c>
       <c r="C35">
         <v>48</v>
@@ -4601,43 +4689,43 @@
         <v>4.72</v>
       </c>
       <c r="E35">
+        <v>3.3999919891357422E-2</v>
+      </c>
+      <c r="F35">
         <v>5.68</v>
       </c>
-      <c r="F35">
-        <v>-1.297275252776128</v>
-      </c>
       <c r="G35">
+        <v>-1.3201663875276179</v>
+      </c>
+      <c r="H35">
         <v>2.82</v>
       </c>
-      <c r="H35">
-        <v>-0.77612171775594352</v>
-      </c>
       <c r="I35">
+        <v>-0.79041586362148653</v>
+      </c>
+      <c r="J35">
         <v>2.12</v>
       </c>
-      <c r="J35">
-        <v>-0.8025829581298477</v>
-      </c>
       <c r="K35">
+        <v>-0.82256474635744647</v>
+      </c>
+      <c r="L35">
         <v>4.7159998893737791</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>4.5559999942779541</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>4.5172000122070308</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>4.3125000190734859</v>
-      </c>
-      <c r="O35">
-        <v>1.04</v>
       </c>
       <c r="P35">
         <v>1.04</v>
       </c>
-      <c r="R35">
-        <v>0</v>
+      <c r="Q35">
+        <v>1.04</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4651,118 +4739,121 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" t="b">
+      <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="b">
         <v>1</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA35">
         <v>3.32</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>5</v>
       </c>
-      <c r="AB35">
-        <v>604.46</v>
-      </c>
-      <c r="AF35">
+      <c r="AC35">
+        <v>618.59</v>
+      </c>
+      <c r="AG35">
         <v>7.077</v>
       </c>
-      <c r="AJ35" t="s">
-        <v>129</v>
-      </c>
       <c r="AK35" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="AL35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM35">
+        <v>72</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN35">
         <v>0.38</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.42</v>
       </c>
-      <c r="AO35">
+      <c r="AP35">
         <v>10.53</v>
       </c>
-      <c r="AP35">
+      <c r="AQ35">
         <v>8.6</v>
       </c>
-      <c r="AQ35">
-        <v>23.74859757611036</v>
+      <c r="AR35">
+        <v>22.423318033849149</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B36">
-        <v>81.438253012048193</v>
+        <v>68.653629183903718</v>
       </c>
       <c r="C36">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="D36">
-        <v>9.75</v>
+        <v>6.28</v>
       </c>
       <c r="E36">
-        <v>11.34</v>
+        <v>0.102000045776367</v>
       </c>
       <c r="F36">
-        <v>-0.84217101294887198</v>
+        <v>9.24</v>
       </c>
       <c r="G36">
-        <v>3.39</v>
+        <v>-1.034541381671682</v>
       </c>
       <c r="H36">
-        <v>-0.64503840377847332</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I36">
-        <v>2.63</v>
+        <v>-0.87498512808018902</v>
       </c>
       <c r="J36">
-        <v>-0.59151096239796019</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K36">
-        <v>9.8100000381469723</v>
+        <v>-0.84319128744335325</v>
       </c>
       <c r="L36">
-        <v>9.5329999923706055</v>
+        <v>6.0880001068115233</v>
       </c>
       <c r="M36">
-        <v>9.0028000164031976</v>
+        <v>5.9160000085830688</v>
       </c>
       <c r="N36">
-        <v>8.4961000204086297</v>
+        <v>5.7894000148773186</v>
       </c>
       <c r="O36">
+        <v>5.4782999920845032</v>
+      </c>
+      <c r="P36">
         <v>1.03</v>
       </c>
-      <c r="P36">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
+      <c r="Q36">
+        <v>1.05</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>10.555555555555561</v>
-      </c>
-      <c r="W36" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>1.1111111111111109</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -4770,49 +4861,52 @@
       <c r="Y36" t="b">
         <v>1</v>
       </c>
-      <c r="Z36">
-        <v>5.75</v>
+      <c r="Z36" t="b">
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>10.76</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="AB36">
-        <v>177.31</v>
-      </c>
-      <c r="AF36">
-        <v>12.646000000000001</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>131</v>
+        <v>6.33</v>
+      </c>
+      <c r="AC36">
+        <v>540.21</v>
+      </c>
+      <c r="AG36">
+        <v>8.51</v>
       </c>
       <c r="AK36" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="AL36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM36">
-        <v>1.45</v>
+        <v>50</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>124</v>
       </c>
       <c r="AN36">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AO36">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>3</v>
+        <v>7.26</v>
       </c>
       <c r="AQ36">
-        <v>22.534002947905179</v>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="AR36">
+        <v>19.495589816825611</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B37">
-        <v>86.144578313253021</v>
+        <v>86.160210605490789</v>
       </c>
       <c r="C37">
         <v>127</v>
@@ -4821,44 +4915,44 @@
         <v>9.5</v>
       </c>
       <c r="E37">
+        <v>8.6000061035155895E-2</v>
+      </c>
+      <c r="F37">
         <v>24.32</v>
       </c>
-      <c r="F37">
-        <v>0.20203831294711899</v>
-      </c>
       <c r="G37">
+        <v>0.17716805962468801</v>
+      </c>
+      <c r="H37">
         <v>5.03</v>
       </c>
-      <c r="H37">
-        <v>-0.26788641268540109</v>
-      </c>
       <c r="I37">
+        <v>-0.28528593266545232</v>
+      </c>
+      <c r="J37">
         <v>3.08</v>
       </c>
-      <c r="J37">
-        <v>-0.40527096616394148</v>
-      </c>
       <c r="K37">
+        <v>-0.42653515750803861</v>
+      </c>
+      <c r="L37">
         <v>9.2679998397827141</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>8.983499908447266</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>8.0047999477386469</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>7.715349988937378</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>1.03</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
         <v>0</v>
       </c>
@@ -4866,385 +4960,284 @@
         <v>0</v>
       </c>
       <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
         <v>3</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>5</v>
       </c>
-      <c r="W37" t="b">
-        <v>0</v>
-      </c>
       <c r="X37" t="b">
         <v>0</v>
       </c>
       <c r="Y37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA37">
         <v>6.53</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>11.8</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>276.36</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>7.7989995000000008</v>
       </c>
-      <c r="AJ37" t="s">
-        <v>94</v>
-      </c>
       <c r="AK37" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="AL37" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM37">
+        <v>54</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN37">
         <v>2.17</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AO37">
+      <c r="AP37">
         <v>12.9</v>
       </c>
-      <c r="AP37">
+      <c r="AQ37">
         <v>0.1</v>
       </c>
-      <c r="AQ37">
-        <v>20.57757084863783</v>
+      <c r="AR37">
+        <v>19.338964703208429</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B38">
-        <v>68.618222891566262</v>
+        <v>98.25122226400903</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>6.28</v>
+        <v>13.6</v>
       </c>
       <c r="E38">
-        <v>9.24</v>
+        <v>-0.2079999923706044</v>
       </c>
       <c r="F38">
-        <v>-1.0112727188706041</v>
+        <v>57.85</v>
       </c>
       <c r="G38">
-        <v>2.4500000000000002</v>
+        <v>2.8700979961341671</v>
       </c>
       <c r="H38">
-        <v>-0.86121088647816102</v>
+        <v>22.63</v>
       </c>
       <c r="I38">
-        <v>2.0699999999999998</v>
+        <v>3.7374682686133718</v>
       </c>
       <c r="J38">
-        <v>-0.82327629104473876</v>
+        <v>13.23</v>
       </c>
       <c r="K38">
-        <v>6.0880001068115233</v>
+        <v>3.7606526829310138</v>
       </c>
       <c r="L38">
-        <v>5.9160000085830688</v>
+        <v>12.287999916076661</v>
       </c>
       <c r="M38">
-        <v>5.7894000148773186</v>
+        <v>11.619499945640561</v>
       </c>
       <c r="N38">
-        <v>5.4782999920845032</v>
+        <v>8.2301999950408931</v>
       </c>
       <c r="O38">
+        <v>6.7371000146865843</v>
+      </c>
+      <c r="P38">
+        <v>1.06</v>
+      </c>
+      <c r="Q38">
+        <v>1.49</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>5.57</v>
+      </c>
+      <c r="AB38">
+        <v>26.05</v>
+      </c>
+      <c r="AC38">
+        <v>181.4</v>
+      </c>
+      <c r="AG38">
+        <v>7.2410000000000014</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN38">
         <v>1.03</v>
       </c>
-      <c r="P38">
-        <v>1.05</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>1.1111111111111109</v>
-      </c>
-      <c r="W38" t="b">
-        <v>0</v>
-      </c>
-      <c r="X38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="AA38">
-        <v>6.33</v>
-      </c>
-      <c r="AB38">
-        <v>542.98</v>
-      </c>
-      <c r="AF38">
-        <v>8.51</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL38" t="s">
+      <c r="AO38">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AP38">
+        <v>8.74</v>
+      </c>
+      <c r="AQ38">
+        <v>5</v>
+      </c>
+      <c r="AR38">
+        <v>18.497328823686161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39">
+        <v>68.653629183903718</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>3.84</v>
+      </c>
+      <c r="E39">
+        <v>3.9999961853027337E-2</v>
+      </c>
+      <c r="F39">
+        <v>8.86</v>
+      </c>
+      <c r="G39">
+        <v>-1.064653635362163</v>
+      </c>
+      <c r="H39">
+        <v>2.36</v>
+      </c>
+      <c r="I39">
+        <v>-0.89555603024581942</v>
+      </c>
+      <c r="J39">
+        <v>1.71</v>
+      </c>
+      <c r="K39">
+        <v>-0.9917023832618812</v>
+      </c>
+      <c r="L39">
+        <v>3.801999950408935</v>
+      </c>
+      <c r="M39">
+        <v>3.7189999938011171</v>
+      </c>
+      <c r="N39">
+        <v>3.5553999853134162</v>
+      </c>
+      <c r="O39">
+        <v>3.3981000030040742</v>
+      </c>
+      <c r="P39">
+        <v>1.02</v>
+      </c>
+      <c r="Q39">
+        <v>1.07</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>2.69</v>
+      </c>
+      <c r="AB39">
+        <v>3.99</v>
+      </c>
+      <c r="AC39">
+        <v>1482.41</v>
+      </c>
+      <c r="AG39">
+        <v>9.0139999999999993</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM39" t="s">
         <v>124</v>
       </c>
-      <c r="AM38">
-        <v>1.25</v>
-      </c>
-      <c r="AN38">
-        <v>1.33</v>
-      </c>
-      <c r="AO38">
-        <v>6.4</v>
-      </c>
-      <c r="AP38">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="AQ38">
-        <v>20.14939398043672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43">
-      <c r="A39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39">
-        <v>98.249246987951807</v>
-      </c>
-      <c r="C39">
-        <v>45</v>
-      </c>
-      <c r="D39">
-        <v>13.6</v>
-      </c>
-      <c r="E39">
-        <v>57.85</v>
-      </c>
-      <c r="F39">
-        <v>2.8985276597524918</v>
-      </c>
-      <c r="G39">
-        <v>22.63</v>
-      </c>
-      <c r="H39">
-        <v>3.7795983697768372</v>
-      </c>
-      <c r="I39">
-        <v>13.23</v>
-      </c>
-      <c r="J39">
-        <v>3.7954756155589222</v>
-      </c>
-      <c r="K39">
-        <v>12.287999916076661</v>
-      </c>
-      <c r="L39">
-        <v>11.619499945640561</v>
-      </c>
-      <c r="M39">
-        <v>8.2301999950408931</v>
-      </c>
-      <c r="N39">
-        <v>6.7371000146865843</v>
-      </c>
-      <c r="O39">
-        <v>1.06</v>
-      </c>
-      <c r="P39">
-        <v>1.49</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39" t="b">
-        <v>0</v>
-      </c>
-      <c r="X39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <v>5.57</v>
-      </c>
-      <c r="AA39">
-        <v>26.05</v>
-      </c>
-      <c r="AB39">
-        <v>202.05</v>
-      </c>
-      <c r="AF39">
-        <v>7.2410000000000014</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM39">
-        <v>1.03</v>
-      </c>
       <c r="AN39">
-        <v>1.1200000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AO39">
-        <v>8.74</v>
+        <v>0.83</v>
       </c>
       <c r="AP39">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AQ39">
-        <v>19.900831579555209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43">
-      <c r="A40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40">
-        <v>68.618222891566262</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40">
-        <v>3.84</v>
-      </c>
-      <c r="E40">
-        <v>8.86</v>
-      </c>
-      <c r="F40">
-        <v>-1.041424773769563</v>
-      </c>
-      <c r="G40">
-        <v>2.36</v>
-      </c>
-      <c r="H40">
-        <v>-0.88190825184302479</v>
-      </c>
-      <c r="I40">
-        <v>1.71</v>
-      </c>
-      <c r="J40">
-        <v>-0.97226828803195364</v>
-      </c>
-      <c r="K40">
-        <v>3.801999950408935</v>
-      </c>
-      <c r="L40">
-        <v>3.7189999938011171</v>
-      </c>
-      <c r="M40">
-        <v>3.5553999853134162</v>
-      </c>
-      <c r="N40">
-        <v>3.3981000030040742</v>
-      </c>
-      <c r="O40">
-        <v>1.02</v>
-      </c>
-      <c r="P40">
-        <v>1.07</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0.55555555555555547</v>
-      </c>
-      <c r="W40" t="b">
-        <v>0</v>
-      </c>
-      <c r="X40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z40">
-        <v>2.69</v>
-      </c>
-      <c r="AA40">
-        <v>3.99</v>
-      </c>
-      <c r="AB40">
-        <v>1488.51</v>
-      </c>
-      <c r="AF40">
-        <v>9.0139999999999993</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM40">
-        <v>0.8</v>
-      </c>
-      <c r="AN40">
-        <v>0.83</v>
-      </c>
-      <c r="AO40">
-        <v>3.75</v>
-      </c>
-      <c r="AP40">
         <v>0.3</v>
       </c>
-      <c r="AQ40">
-        <v>6.9225081616869852</v>
+      <c r="AR39">
+        <v>5.1860588655519742</v>
       </c>
     </row>
   </sheetData>
